--- a/medicine/Sexualité et sexologie/Feeding/Feeding.xlsx
+++ b/medicine/Sexualité et sexologie/Feeding/Feeding.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le feeding est une expression anglophone désignant une pratique consistant à faire manger un/une partenaire, voire à le/la forcer à manger (il est alors question de forced feeding), afin de lui faire prendre du poids, jusqu’à atteindre parfois des poids extrêmes. L'individu dont le fantasme est de donner ou forcer à manger en vue de voir grossir l'autre est appelé(e) un(e) feeder ; celui désirant grossir et se faire gaver est un(e) feedee.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette pratique est plus courante sous la forme feeder/feedee homme/femme, c'est-à-dire lorsque c'est l'homme qui tient le rôle du gaveur, la feedie étant dans une relation de dépendance et de soumission.
 Les feeders ne doivent pas être confondus avec les Fat Admirers. Même si les feeders sont pour la plupart des Fat Admirers, l’inverse est faux, cette pratique restant minoritaire. 
@@ -544,7 +558,9 @@
           <t>Variances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mutual-gainer → Personne qui encourage son/sa partenaire à devenir de plus en plus gras(se) et lui fasse de même.
 Gainer → Personne qui prend du poids volontairement mais seul, sans aide de partenaire.
@@ -578,7 +594,9 @@
           <t>Vocabulaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">BBW (Big Beautiful Woman) → Femmes à forte corpulence et qui assument leurs rondeurs.
 SSBBW (Super-Size BBW) → Femmes extrêmement corpulentes et qui l'assument.
